--- a/QA/testcases/LLS/Pharmacy/011_L_Prov_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/LLS/Pharmacy/011_L_Prov_Patient_App_ViewIncomplete.xlsx
@@ -58,7 +58,7 @@
     <t>Reference Step</t>
   </si>
   <si>
-    <t>LLSProviderLogin</t>
+    <t>LLSPharmacyLogin</t>
   </si>
   <si>
     <t>Launch URL and login as Pharmacy</t>
@@ -996,10 +996,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1043,14 +1043,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,61 +1172,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,59 +1181,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,19 +1213,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,13 +1255,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,54 +1309,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1321,7 +1321,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,25 +1351,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,42 +1375,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1449,6 +1449,17 @@
       <left/>
       <right/>
       <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
@@ -1457,26 +1468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1505,37 +1507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1554,16 +1536,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1575,134 +1586,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1711,7 +1722,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1720,8 +1731,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2166,8 +2178,8 @@
   <sheetPr/>
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2925,7 +2937,7 @@
       <c r="G35" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="10">
@@ -2937,7 +2949,7 @@
       <c r="C36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="18" t="s">
         <v>96</v>
       </c>
       <c r="E36" s="9"/>
@@ -2947,7 +2959,7 @@
       <c r="G36" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="10">
@@ -2971,7 +2983,7 @@
       <c r="G37" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7">
@@ -3019,7 +3031,7 @@
       <c r="G39" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="10">
@@ -3059,7 +3071,7 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="10">
@@ -3101,7 +3113,7 @@
       <c r="G43" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7">
@@ -3141,7 +3153,7 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="8"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="10">
@@ -3321,7 +3333,7 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="7">
@@ -3359,7 +3371,7 @@
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="8"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="10">
@@ -3397,7 +3409,7 @@
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="8"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="10">
@@ -3441,7 +3453,7 @@
       <c r="G61" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="8"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
@@ -3489,7 +3501,7 @@
       <c r="G63" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H63" s="8"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="10">
@@ -3531,7 +3543,7 @@
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="8"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="10">
@@ -3711,7 +3723,7 @@
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="8"/>
+      <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="10">
@@ -3751,7 +3763,7 @@
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="8"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="10">
@@ -3793,7 +3805,7 @@
       <c r="G79" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H79" s="8"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
@@ -3839,7 +3851,7 @@
       <c r="G81" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H81" s="8"/>
+      <c r="H81" s="17"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="10">
@@ -3881,7 +3893,7 @@
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="17"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="10">
@@ -3917,7 +3929,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="8"/>
+      <c r="H85" s="17"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7">
@@ -3957,7 +3969,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="8"/>
+      <c r="H87" s="17"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="10">
@@ -3997,7 +4009,7 @@
       <c r="G89" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H89" s="8"/>
+      <c r="H89" s="17"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="10">
@@ -4525,7 +4537,7 @@
       <c r="G118" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H118" s="8"/>
+      <c r="H118" s="17"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="7">
@@ -4569,7 +4581,7 @@
       <c r="G120" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H120" s="8"/>
+      <c r="H120" s="17"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="10">
@@ -4603,7 +4615,7 @@
       <c r="G122" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H122" s="8"/>
+      <c r="H122" s="17"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="10">
@@ -4647,7 +4659,7 @@
       <c r="G124" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H124" s="8"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="7">
@@ -4683,7 +4695,7 @@
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
-      <c r="H126" s="8"/>
+      <c r="H126" s="17"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="10">
@@ -4723,7 +4735,7 @@
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
-      <c r="H128" s="8"/>
+      <c r="H128" s="17"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="10">
@@ -4765,7 +4777,7 @@
       <c r="G130" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H130" s="8"/>
+      <c r="H130" s="17"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="7">
@@ -4953,7 +4965,7 @@
       <c r="G140" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H140" s="8"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" s="4" customFormat="1" spans="1:8">
       <c r="A141" s="10">
@@ -4995,7 +5007,7 @@
       <c r="G142" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H142" s="8"/>
+      <c r="H142" s="17"/>
     </row>
     <row r="143" s="4" customFormat="1" spans="1:8">
       <c r="A143" s="7">
@@ -5021,7 +5033,7 @@
       <c r="A144" s="10">
         <v>143</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C144" s="9" t="s">
@@ -5037,7 +5049,7 @@
       <c r="G144" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H144" s="8"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" s="4" customFormat="1" spans="1:8">
       <c r="A145" s="10">
@@ -5059,25 +5071,25 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D146" s="18" t="s">
+      <c r="D146" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F146" s="18" t="s">
+      <c r="F146" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="G146" s="18" t="s">
+      <c r="G146" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="H146" s="8"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" s="4" customFormat="1" spans="1:8">
       <c r="A147" s="10">
@@ -5115,7 +5127,7 @@
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
-      <c r="H148" s="8"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149" s="4" customFormat="1" spans="1:8">
       <c r="A149" s="7">
@@ -5153,7 +5165,7 @@
       </c>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
-      <c r="H150" s="8"/>
+      <c r="H150" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="9">
